--- a/biology/Zoologie/Chalceus/Chalceus.xlsx
+++ b/biology/Zoologie/Chalceus/Chalceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalceus est un genre de poissons téléostéens de la famille des "Characidae" en incertae sedis et de l'ordre des Characiformes. Les Chalceus se rencontre en Amérique du Sud, de l'Orénoque au bassin de l'Amazone, ainsi que les rivières des Guyanes. Ils atteignent généralement une longueur de 20-25 cm (7/9 à 9/8 po). Ce sont des prédateurs, se nourrissant d'insectes, de petits poissons, et similaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (22 juin 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (22 juin 2015):
 Chalceus epakros Zanata &amp; Toledo-Piza, 2004
 Chalceus erythrurus (Cope, 1870)
 Chalceus fasciatus Jardine, 1841
